--- a/Просчет инвентаризации 2.xlsx
+++ b/Просчет инвентаризации 2.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$I$67</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -231,11 +234,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="#\ ##0.00"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="#\ ##0.00"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -253,21 +256,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -276,7 +264,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,41 +292,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -344,8 +323,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -360,17 +354,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -384,9 +372,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -396,6 +384,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -412,19 +415,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,163 +595,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,30 +618,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -711,8 +690,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -721,148 +724,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -880,7 +883,7 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1204,11 +1207,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1242,7 +1245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="30" spans="1:9">
+    <row r="2" ht="30" hidden="1" spans="1:9">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
@@ -1259,7 +1262,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" ht="30" spans="1:9">
+    <row r="3" ht="30" hidden="1" spans="1:9">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -1276,7 +1279,7 @@
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" ht="30" spans="1:9">
+    <row r="4" ht="30" hidden="1" spans="1:9">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
@@ -1293,7 +1296,7 @@
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" ht="30" spans="1:9">
+    <row r="5" ht="30" hidden="1" spans="1:9">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
@@ -1310,7 +1313,7 @@
       </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" ht="30" spans="1:9">
+    <row r="6" ht="30" hidden="1" spans="1:9">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3" t="s">
@@ -1327,7 +1330,7 @@
       </c>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" ht="30" spans="1:9">
+    <row r="7" ht="30" hidden="1" spans="1:9">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3" t="s">
@@ -1344,7 +1347,7 @@
       </c>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" ht="30" spans="1:9">
+    <row r="8" ht="30" hidden="1" spans="1:9">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3" t="s">
@@ -1361,7 +1364,7 @@
       </c>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" ht="30" spans="1:9">
+    <row r="9" ht="30" hidden="1" spans="1:9">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
@@ -1378,7 +1381,7 @@
       </c>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" ht="30" spans="1:9">
+    <row r="10" ht="30" hidden="1" spans="1:9">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
@@ -1395,7 +1398,7 @@
       </c>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" ht="30" spans="1:9">
+    <row r="11" ht="30" hidden="1" spans="1:9">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3" t="s">
@@ -1412,7 +1415,7 @@
       </c>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" ht="30" spans="1:9">
+    <row r="12" ht="30" hidden="1" spans="1:9">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3" t="s">
@@ -1429,7 +1432,7 @@
       </c>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" ht="30" spans="1:9">
+    <row r="13" ht="30" hidden="1" spans="1:9">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3" t="s">
@@ -1446,7 +1449,7 @@
       </c>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" ht="30" spans="1:9">
+    <row r="14" ht="30" hidden="1" spans="1:9">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3" t="s">
@@ -1463,7 +1466,7 @@
       </c>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" ht="30" spans="1:9">
+    <row r="15" ht="30" hidden="1" spans="1:9">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3" t="s">
@@ -1480,7 +1483,7 @@
       </c>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" ht="30" spans="1:9">
+    <row r="16" ht="30" hidden="1" spans="1:9">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3" t="s">
@@ -1497,7 +1500,7 @@
       </c>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" ht="30" spans="1:9">
+    <row r="17" ht="30" hidden="1" spans="1:9">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="3" t="s">
@@ -1514,7 +1517,7 @@
       </c>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" ht="30" spans="1:9">
+    <row r="18" ht="30" hidden="1" spans="1:9">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="3" t="s">
@@ -1531,7 +1534,7 @@
       </c>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" ht="30" spans="1:9">
+    <row r="19" ht="30" hidden="1" spans="1:9">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3" t="s">
@@ -1548,7 +1551,7 @@
       </c>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" ht="30" spans="1:9">
+    <row r="20" ht="30" hidden="1" spans="1:9">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3" t="s">
@@ -1565,7 +1568,7 @@
       </c>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" ht="30" spans="1:9">
+    <row r="21" ht="30" hidden="1" spans="1:9">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="3" t="s">
@@ -1582,7 +1585,7 @@
       </c>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" ht="30" spans="1:9">
+    <row r="22" ht="30" hidden="1" spans="1:9">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="3" t="s">
@@ -1599,7 +1602,7 @@
       </c>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" ht="30" spans="1:9">
+    <row r="23" ht="30" hidden="1" spans="1:9">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="3" t="s">
@@ -1616,7 +1619,7 @@
       </c>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" ht="30" spans="1:9">
+    <row r="24" ht="30" hidden="1" spans="1:9">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="3" t="s">
@@ -1633,7 +1636,7 @@
       </c>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" ht="30" spans="1:9">
+    <row r="25" ht="30" hidden="1" spans="1:9">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="3" t="s">
@@ -1650,7 +1653,7 @@
       </c>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" ht="30" spans="1:9">
+    <row r="26" ht="30" hidden="1" spans="1:9">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="3" t="s">
@@ -1667,7 +1670,7 @@
       </c>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" ht="30" spans="1:9">
+    <row r="27" ht="30" hidden="1" spans="1:9">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="3" t="s">
@@ -1684,7 +1687,7 @@
       </c>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" ht="30" spans="1:9">
+    <row r="28" ht="30" hidden="1" spans="1:9">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="3" t="s">
@@ -1701,7 +1704,7 @@
       </c>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" ht="30" spans="1:9">
+    <row r="29" ht="30" hidden="1" spans="1:9">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="3" t="s">
@@ -1718,7 +1721,7 @@
       </c>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" ht="30" spans="1:9">
+    <row r="30" ht="30" hidden="1" spans="1:9">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="3" t="s">
@@ -1735,7 +1738,7 @@
       </c>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" ht="30" spans="1:9">
+    <row r="31" ht="30" hidden="1" spans="1:9">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="3" t="s">
@@ -1752,7 +1755,7 @@
       </c>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" ht="30" spans="1:9">
+    <row r="32" ht="30" hidden="1" spans="1:9">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="3" t="s">
@@ -1769,7 +1772,7 @@
       </c>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" ht="30" spans="1:9">
+    <row r="33" ht="30" hidden="1" spans="1:9">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="3" t="s">
@@ -1786,7 +1789,7 @@
       </c>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" ht="30" spans="1:9">
+    <row r="34" ht="30" hidden="1" spans="1:9">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="3" t="s">
@@ -1803,7 +1806,7 @@
       </c>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" ht="30" spans="1:9">
+    <row r="35" ht="30" hidden="1" spans="1:9">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="3" t="s">
@@ -1820,7 +1823,7 @@
       </c>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" ht="30" spans="1:9">
+    <row r="36" ht="30" hidden="1" spans="1:9">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="3" t="s">
@@ -1837,7 +1840,7 @@
       </c>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" ht="30" spans="1:9">
+    <row r="37" ht="30" hidden="1" spans="1:9">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="3" t="s">
@@ -1854,7 +1857,7 @@
       </c>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" ht="30" spans="1:9">
+    <row r="38" ht="30" hidden="1" spans="1:9">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="3" t="s">
@@ -1871,7 +1874,7 @@
       </c>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" ht="30" spans="1:9">
+    <row r="39" ht="30" hidden="1" spans="1:9">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="3" t="s">
@@ -1888,7 +1891,7 @@
       </c>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" ht="30" spans="1:9">
+    <row r="40" ht="30" hidden="1" spans="1:9">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="3" t="s">
@@ -1905,7 +1908,7 @@
       </c>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" ht="30" spans="1:9">
+    <row r="41" ht="30" hidden="1" spans="1:9">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="3" t="s">
@@ -1937,7 +1940,7 @@
       <c r="H42" s="6"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" ht="30" spans="1:9">
+    <row r="43" ht="30" hidden="1" spans="1:9">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="3" t="s">
@@ -1954,7 +1957,7 @@
       </c>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" ht="30" spans="1:9">
+    <row r="44" ht="30" hidden="1" spans="1:9">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="3" t="s">
@@ -1971,7 +1974,7 @@
       </c>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" ht="30" spans="1:9">
+    <row r="45" ht="30" hidden="1" spans="1:9">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="3" t="s">
@@ -1988,7 +1991,7 @@
       </c>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" ht="30" spans="1:9">
+    <row r="46" ht="30" hidden="1" spans="1:9">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="3" t="s">
@@ -2005,7 +2008,7 @@
       </c>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" ht="30" spans="1:9">
+    <row r="47" ht="30" hidden="1" spans="1:9">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="3" t="s">
@@ -2022,7 +2025,7 @@
       </c>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" ht="30" spans="1:9">
+    <row r="48" ht="30" hidden="1" spans="1:9">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="3" t="s">
@@ -2039,7 +2042,7 @@
       </c>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" ht="30" spans="1:9">
+    <row r="49" ht="30" hidden="1" spans="1:9">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="3" t="s">
@@ -2056,7 +2059,7 @@
       </c>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" ht="30" spans="1:9">
+    <row r="50" ht="30" hidden="1" spans="1:9">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="3" t="s">
@@ -2073,7 +2076,7 @@
       </c>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" ht="30" spans="1:9">
+    <row r="51" ht="30" hidden="1" spans="1:9">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="3" t="s">
@@ -2090,7 +2093,7 @@
       </c>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" ht="30" spans="1:9">
+    <row r="52" ht="30" hidden="1" spans="1:9">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="3" t="s">
@@ -2107,7 +2110,7 @@
       </c>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" ht="30" spans="1:9">
+    <row r="53" ht="30" hidden="1" spans="1:9">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="3" t="s">
@@ -2124,7 +2127,7 @@
       </c>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" ht="30" spans="1:9">
+    <row r="54" ht="30" hidden="1" spans="1:9">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="3" t="s">
@@ -2141,7 +2144,7 @@
       </c>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" ht="30" spans="1:9">
+    <row r="55" ht="30" hidden="1" spans="1:9">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="3" t="s">
@@ -2158,7 +2161,7 @@
       </c>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" ht="30" spans="1:9">
+    <row r="56" ht="30" hidden="1" spans="1:9">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="3" t="s">
@@ -2175,7 +2178,7 @@
       </c>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" ht="30" spans="1:9">
+    <row r="57" ht="30" hidden="1" spans="1:9">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="3" t="s">
@@ -2192,7 +2195,7 @@
       </c>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" ht="30" spans="1:9">
+    <row r="58" ht="30" hidden="1" spans="1:9">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="3" t="s">
@@ -2209,7 +2212,7 @@
       </c>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" ht="30" spans="1:9">
+    <row r="59" ht="30" hidden="1" spans="1:9">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="3" t="s">
@@ -2226,7 +2229,7 @@
       </c>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" ht="30" spans="1:9">
+    <row r="60" ht="30" hidden="1" spans="1:9">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="3" t="s">
@@ -2243,7 +2246,7 @@
       </c>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" ht="30" spans="1:9">
+    <row r="61" ht="30" hidden="1" spans="1:9">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="3" t="s">
@@ -2260,7 +2263,7 @@
       </c>
       <c r="I61" s="2"/>
     </row>
-    <row r="62" ht="30" spans="1:9">
+    <row r="62" ht="30" hidden="1" spans="1:9">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="3" t="s">
@@ -2277,7 +2280,7 @@
       </c>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" ht="30" spans="1:9">
+    <row r="63" ht="30" hidden="1" spans="1:9">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="3" t="s">
@@ -2294,7 +2297,7 @@
       </c>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" ht="30" spans="1:9">
+    <row r="64" ht="30" hidden="1" spans="1:9">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="3" t="s">
@@ -2311,7 +2314,7 @@
       </c>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" ht="30" spans="1:9">
+    <row r="65" ht="30" hidden="1" spans="1:9">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="3" t="s">
@@ -2328,7 +2331,7 @@
       </c>
       <c r="I65" s="2"/>
     </row>
-    <row r="66" ht="30" spans="1:9">
+    <row r="66" ht="30" hidden="1" spans="1:9">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="3" t="s">
@@ -2345,7 +2348,7 @@
       </c>
       <c r="I66" s="2"/>
     </row>
-    <row r="67" ht="30" spans="1:9">
+    <row r="67" ht="30" hidden="1" spans="1:9">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="3" t="s">
@@ -2363,6 +2366,12 @@
       <c r="I67" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I67">
+    <filterColumn colId="7">
+      <filters blank="1"/>
+    </filterColumn>
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
